--- a/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>18</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>46</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>38</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>124</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>238</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>164</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>30</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>10</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>112</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>478</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>14</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>76</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>564</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>166</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>492</v>

--- a/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -679,6 +680,425 @@
       </c>
       <c r="B7" t="n">
         <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-137.159419619915</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129.3021997328305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-135.7230185300907</v>
+      </c>
+      <c r="D3" t="n">
+        <v>135.0165540332324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-121.1980591242889</v>
+      </c>
+      <c r="D4" t="n">
+        <v>130.905749219192</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-117.9286266307527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>145.637135790775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-107.340561474685</v>
+      </c>
+      <c r="D6" t="n">
+        <v>160.0599156152406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-99.73349147243536</v>
+      </c>
+      <c r="D7" t="n">
+        <v>161.8065238984867</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-85.67239790553364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>175.4695994754048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>53</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-77.59215620622869</v>
+      </c>
+      <c r="D9" t="n">
+        <v>187.5084702772052</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-69.54661997674502</v>
+      </c>
+      <c r="D10" t="n">
+        <v>190.2060483559547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-65.15808488094628</v>
+      </c>
+      <c r="D11" t="n">
+        <v>205.9908959659287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-52.40234270290221</v>
+      </c>
+      <c r="D12" t="n">
+        <v>206.6222508031955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>87</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-34.52212794166292</v>
+      </c>
+      <c r="D13" t="n">
+        <v>226.2725327110725</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-35.15194330528549</v>
+      </c>
+      <c r="D14" t="n">
+        <v>224.2489648530013</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>113</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-22.65417597330101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>241.9690764836821</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>121</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-12.52852142433854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>250.2108620187812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>130</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.130900495275028</v>
+      </c>
+      <c r="D17" t="n">
+        <v>260.9356800361904</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>138</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.61113461938557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>270.1725775004622</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>147</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.191826127496708</v>
+      </c>
+      <c r="D19" t="n">
+        <v>278.0638327516199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>155</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34.84485841360309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>281.5847256069842</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>34.21038480056657</v>
+      </c>
+      <c r="D21" t="n">
+        <v>300.0094934775733</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>173</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.67217404778905</v>
+      </c>
+      <c r="D22" t="n">
+        <v>300.6207446994505</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>181</v>
+      </c>
+      <c r="C23" t="n">
+        <v>54.30516282335471</v>
+      </c>
+      <c r="D23" t="n">
+        <v>310.9795535763253</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>190</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64.32236078381044</v>
+      </c>
+      <c r="D24" t="n">
+        <v>312.6119314634626</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>198</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75.36418612055533</v>
+      </c>
+      <c r="D25" t="n">
+        <v>330.75767810639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>207</v>
+      </c>
+      <c r="C26" t="n">
+        <v>81.32231515704079</v>
+      </c>
+      <c r="D26" t="n">
+        <v>345.7145992891501</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>215</v>
+      </c>
+      <c r="C27" t="n">
+        <v>86.50479941253234</v>
+      </c>
+      <c r="D27" t="n">
+        <v>345.0019239686632</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>224</v>
+      </c>
+      <c r="C28" t="n">
+        <v>90.31327687776923</v>
+      </c>
+      <c r="D28" t="n">
+        <v>342.5726892425683</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,16 +712,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -730,12 +720,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-137.159419619915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>129.3021997328305</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -744,12 +728,6 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>-135.7230185300907</v>
-      </c>
-      <c r="D3" t="n">
-        <v>135.0165540332324</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -758,12 +736,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>-121.1980591242889</v>
-      </c>
-      <c r="D4" t="n">
-        <v>130.905749219192</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -772,12 +744,6 @@
       <c r="B5" t="n">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
-        <v>-117.9286266307527</v>
-      </c>
-      <c r="D5" t="n">
-        <v>145.637135790775</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -786,12 +752,6 @@
       <c r="B6" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
-        <v>-107.340561474685</v>
-      </c>
-      <c r="D6" t="n">
-        <v>160.0599156152406</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,12 +760,6 @@
       <c r="B7" t="n">
         <v>36</v>
       </c>
-      <c r="C7" t="n">
-        <v>-99.73349147243536</v>
-      </c>
-      <c r="D7" t="n">
-        <v>161.8065238984867</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -814,12 +768,6 @@
       <c r="B8" t="n">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>-85.67239790553364</v>
-      </c>
-      <c r="D8" t="n">
-        <v>175.4695994754048</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -828,12 +776,6 @@
       <c r="B9" t="n">
         <v>53</v>
       </c>
-      <c r="C9" t="n">
-        <v>-77.59215620622869</v>
-      </c>
-      <c r="D9" t="n">
-        <v>187.5084702772052</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -842,12 +784,6 @@
       <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
-        <v>-69.54661997674502</v>
-      </c>
-      <c r="D10" t="n">
-        <v>190.2060483559547</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -856,12 +792,6 @@
       <c r="B11" t="n">
         <v>70</v>
       </c>
-      <c r="C11" t="n">
-        <v>-65.15808488094628</v>
-      </c>
-      <c r="D11" t="n">
-        <v>205.9908959659287</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -870,12 +800,6 @@
       <c r="B12" t="n">
         <v>78</v>
       </c>
-      <c r="C12" t="n">
-        <v>-52.40234270290221</v>
-      </c>
-      <c r="D12" t="n">
-        <v>206.6222508031955</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -884,12 +808,6 @@
       <c r="B13" t="n">
         <v>87</v>
       </c>
-      <c r="C13" t="n">
-        <v>-34.52212794166292</v>
-      </c>
-      <c r="D13" t="n">
-        <v>226.2725327110725</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -898,12 +816,6 @@
       <c r="B14" t="n">
         <v>96</v>
       </c>
-      <c r="C14" t="n">
-        <v>-35.15194330528549</v>
-      </c>
-      <c r="D14" t="n">
-        <v>224.2489648530013</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -912,12 +824,6 @@
       <c r="B15" t="n">
         <v>113</v>
       </c>
-      <c r="C15" t="n">
-        <v>-22.65417597330101</v>
-      </c>
-      <c r="D15" t="n">
-        <v>241.9690764836821</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -926,12 +832,6 @@
       <c r="B16" t="n">
         <v>121</v>
       </c>
-      <c r="C16" t="n">
-        <v>-12.52852142433854</v>
-      </c>
-      <c r="D16" t="n">
-        <v>250.2108620187812</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -940,12 +840,6 @@
       <c r="B17" t="n">
         <v>130</v>
       </c>
-      <c r="C17" t="n">
-        <v>-7.130900495275028</v>
-      </c>
-      <c r="D17" t="n">
-        <v>260.9356800361904</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -954,12 +848,6 @@
       <c r="B18" t="n">
         <v>138</v>
       </c>
-      <c r="C18" t="n">
-        <v>14.61113461938557</v>
-      </c>
-      <c r="D18" t="n">
-        <v>270.1725775004622</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -968,12 +856,6 @@
       <c r="B19" t="n">
         <v>147</v>
       </c>
-      <c r="C19" t="n">
-        <v>5.191826127496708</v>
-      </c>
-      <c r="D19" t="n">
-        <v>278.0638327516199</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -982,12 +864,6 @@
       <c r="B20" t="n">
         <v>155</v>
       </c>
-      <c r="C20" t="n">
-        <v>34.84485841360309</v>
-      </c>
-      <c r="D20" t="n">
-        <v>281.5847256069842</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -996,12 +872,6 @@
       <c r="B21" t="n">
         <v>164</v>
       </c>
-      <c r="C21" t="n">
-        <v>34.21038480056657</v>
-      </c>
-      <c r="D21" t="n">
-        <v>300.0094934775733</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1010,12 +880,6 @@
       <c r="B22" t="n">
         <v>173</v>
       </c>
-      <c r="C22" t="n">
-        <v>34.67217404778905</v>
-      </c>
-      <c r="D22" t="n">
-        <v>300.6207446994505</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1024,12 +888,6 @@
       <c r="B23" t="n">
         <v>181</v>
       </c>
-      <c r="C23" t="n">
-        <v>54.30516282335471</v>
-      </c>
-      <c r="D23" t="n">
-        <v>310.9795535763253</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1038,12 +896,6 @@
       <c r="B24" t="n">
         <v>190</v>
       </c>
-      <c r="C24" t="n">
-        <v>64.32236078381044</v>
-      </c>
-      <c r="D24" t="n">
-        <v>312.6119314634626</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1052,12 +904,6 @@
       <c r="B25" t="n">
         <v>198</v>
       </c>
-      <c r="C25" t="n">
-        <v>75.36418612055533</v>
-      </c>
-      <c r="D25" t="n">
-        <v>330.75767810639</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1066,12 +912,6 @@
       <c r="B26" t="n">
         <v>207</v>
       </c>
-      <c r="C26" t="n">
-        <v>81.32231515704079</v>
-      </c>
-      <c r="D26" t="n">
-        <v>345.7145992891501</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1080,12 +920,6 @@
       <c r="B27" t="n">
         <v>215</v>
       </c>
-      <c r="C27" t="n">
-        <v>86.50479941253234</v>
-      </c>
-      <c r="D27" t="n">
-        <v>345.0019239686632</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1093,12 +927,6 @@
       </c>
       <c r="B28" t="n">
         <v>224</v>
-      </c>
-      <c r="C28" t="n">
-        <v>90.31327687776923</v>
-      </c>
-      <c r="D28" t="n">
-        <v>342.5726892425683</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
+++ b/po_analysis_by_asin/B0D9YV625B_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -614,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +690,14 @@
         <v>492</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -693,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +734,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -726,7 +742,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -734,7 +750,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -742,7 +758,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -750,7 +766,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -758,7 +774,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +782,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +798,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -790,7 +806,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -798,7 +814,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +822,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +830,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -822,7 +838,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -830,7 +846,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -838,7 +854,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -846,7 +862,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -854,7 +870,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -862,71 +878,79 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>224</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
